--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D58B7C-DC49-43F6-8CE3-0F8A5AD638FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA102426-E0BB-4F0B-A246-BFAE407E55FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="190">
   <si>
     <t>Author</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t xml:space="preserve">hiển thị thông thông báo thêm thành công khi nhấn nút  " thêm " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị nút quay lại trong giao diện thêm chính sách </t>
   </si>
   <si>
     <t>Hiển thị giao diện thêm chính sách và nút " quay lại "</t>
@@ -541,8 +538,193 @@
     <t>TC-BDS-ATTTK-5</t>
   </si>
   <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-6</t>
+  </si>
+  <si>
+    <t>truongquanA.doc</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra không thể thêm tài khoản khi Admin để trống 1 trong các trường thông tin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi  " không được để trống " </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Quay trở về giao diện danh sách tài khoản  khi nhấn nút " hủy" </t>
+  </si>
+  <si>
+    <t>Nhấn "hủy "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quay trở về giao diện danh sách tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Hiển thị button " Thêm tài khoản  " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diện danh sách các tài khoản  và nút " thêm tài khoản " </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Hiển thị giao diện thêm tài khoản  khi nhấn vào button " thêm tài khoản  " </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhấn nút " thêm tài khoản "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diện thêm thêm tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị danh sách tài khoản bao gồm : 
+- hình ảnh 
+-tên đăng nhập :Trương Quang A
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Doanh số : 5000000
+- Trạng thái : ẩn 
+- Button </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-11</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn nút " thêm tài khoản   " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập các trường thông tin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị giao dien danh sách tài khoản </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-13</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-14</t>
+  </si>
+  <si>
+    <t>Nhấn nút " Thêm tài khoản   " trong giao diện chính sách công ty</t>
+  </si>
+  <si>
+    <t>truongquan.png</t>
+  </si>
+  <si>
+    <t>Kiễm tra hiển thị thông báo lỗi khi admin để trống trường thông tin</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-16</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-15</t>
+  </si>
+  <si>
+    <t>1+5:12G975:10G975:10G975:105:20G975:105:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra hiển thị thông thông báo thêm thành công khi nhấn nút  " thêm " </t>
+  </si>
+  <si>
+    <t>Test Cases for ''Add thông tin tài khoản    "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiển thị cửa sôổ thêm tài khoản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhấn nút " Thêm tài khoản "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập Mã nhân viên 
+-Nhập tên đăng nhập 
+-nhập mật khẩu 
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+-NHập phòng ban 
+Nhập Doanh số </t>
+  </si>
+  <si>
+    <t>Mã nhân viên : A 123
+tên đăng nhập :Trương Quang A
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Doanh số : 5000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mã nhân viên
+Nhập tên đăng nhập 
+-nhập mật khẩu 
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã nhân viên : a122
+tên đăng nhập :Trương Quang A
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập mã nhân viên
+Nhập tên đăng nhập 
+-nhập mật khẩu 
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ </t>
+  </si>
+  <si>
     <r>
-      <t>tên đăng nhập :Trương Quang A
+      <t>mã nhân viên : A123
+tên đăng nhập :Trương Quang A
 - mật khẩu :********
 - SDT :</t>
     </r>
@@ -585,51 +767,24 @@
       <t xml:space="preserve">
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : </t>
+</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã nhân viên : A123
+tên đăng nhập :Trương Quang A
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>năm</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên đăng nhập 
--nhập mật khẩu 
-- nhập SDT : nhập chữ 
--nhập Email
-- Nhập ngày sinh:nhập chữ  
-- Nhập địa chỉ 
-- Nhập Chức vụ 
--NHập phòng ban 
-Nhập Doanh số: nhập chữ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị thông báo lỗi  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị thông báo lỗi </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-6</t>
-  </si>
-  <si>
-    <t>truongquanA.doc</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra không thể thêm tài khoản khi Admin để trống 1 trong các trường thông tin  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">tên đăng nhập </t>
+      <t xml:space="preserve">Mã nhân viên : A123
+tên đăng nhập </t>
     </r>
     <r>
       <rPr>
@@ -654,116 +809,64 @@
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000</t>
+</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị thông báo lỗi  " không được để trống " </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra Quay trở về giao diện danh sách tài khoản  khi nhấn nút " hủy" </t>
-  </si>
-  <si>
-    <t>Nhấn "hủy "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quay trở về giao diện danh sách tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị button " Thêm tài khoản  " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị giao diện danh sách các tài khoản  và nút " thêm tài khoản " </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị giao diện thêm tài khoản  khi nhấn vào button " thêm tài khoản  " </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhấn nút " thêm tài khoản "
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị giao diện thêm thêm tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị danh sách tài khoản bao gồm : 
-- hình ảnh 
--tên đăng nhập :Trương Quang A
+    <t xml:space="preserve">mã nhân viên : A123
+tên đăng nhập :Trương Quang A
 - mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000
-- Trạng thái : ẩn 
-- Button </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-11</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " thêm tài khoản   " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập các trường thông tin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị giao dien danh sách tài khoản </t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-13</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-14</t>
-  </si>
-  <si>
-    <t>Nhấn nút " Thêm tài khoản   " trong giao diện chính sách công ty</t>
-  </si>
-  <si>
-    <t>truongquan.png</t>
-  </si>
-  <si>
-    <t>Kiễm tra hiển thị thông báo lỗi khi admin để trống trường thông tin</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-16</t>
-  </si>
-  <si>
-    <t>TC-BDS-ATTTK-15</t>
-  </si>
-  <si>
-    <t>1+5:12G975:10G975:10G975:105:20G975:105:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra hiển thị thông thông báo thêm thành công khi nhấn nút  " thêm " </t>
-  </si>
-  <si>
-    <t>Test Cases for ''Add thông tin tài khoản    "</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiển thị cửa sôổ thêm tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình </t>
+    <t xml:space="preserve">Nhập Mã nhân viên 
+Nhập tên đăng nhập 
+-nhập mật khẩu 
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã nhân viên : a123
+tên đăng nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:Đễ trống </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Hiển thị nút quay lại trong giao diện thêm tài khoản </t>
   </si>
 </sst>
 </file>
@@ -2041,7 +2144,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2217,9 @@
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>43896</v>
+      </c>
       <c r="D8" s="10" t="s">
         <v>54</v>
       </c>
@@ -2250,7 +2355,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2292,7 +2397,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2" s="73"/>
       <c r="H2" s="74"/>
@@ -2374,11 +2479,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2394,11 +2499,11 @@
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2414,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
@@ -2434,11 +2539,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>36</v>
@@ -2454,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
@@ -2474,11 +2579,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>37</v>
@@ -2492,11 +2597,11 @@
     <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>36</v>
@@ -2512,13 +2617,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2534,13 +2639,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2556,13 +2661,13 @@
         <v>9</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2578,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
@@ -2600,7 +2705,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>45</v>
@@ -2622,7 +2727,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -2644,7 +2749,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>45</v>
@@ -2665,13 +2770,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>35</v>
@@ -2686,13 +2791,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>35</v>
@@ -2752,8 +2857,8 @@
   <dimension ref="A1:I114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112:E114"/>
+      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2772,7 +2877,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="101" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -2834,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>120</v>
-      </c>
       <c r="E5" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
@@ -2866,11 +2971,11 @@
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2883,11 +2988,11 @@
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2900,10 +3005,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="I8" s="40"/>
     </row>
@@ -2937,7 +3042,7 @@
         <v>75</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>63</v>
@@ -2974,7 +3079,7 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2982,16 +3087,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="87" t="s">
-        <v>129</v>
-      </c>
       <c r="E13" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F13" s="44">
         <v>1</v>
@@ -3014,11 +3119,11 @@
         <v>2</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3031,11 +3136,11 @@
         <v>3</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3048,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I16" s="40"/>
     </row>
@@ -3085,7 +3190,7 @@
         <v>75</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>63</v>
@@ -3122,7 +3227,7 @@
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3130,16 +3235,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="87" t="s">
-        <v>135</v>
-      </c>
       <c r="E21" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F21" s="44">
         <v>1</v>
@@ -3162,11 +3267,11 @@
         <v>2</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3179,11 +3284,11 @@
         <v>3</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3196,10 +3301,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I24" s="40"/>
     </row>
@@ -3230,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>63</v>
@@ -3270,7 +3375,7 @@
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,16 +3383,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29" s="87" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="87" t="s">
-        <v>138</v>
-      </c>
       <c r="E29" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F29" s="44">
         <v>1</v>
@@ -3310,11 +3415,11 @@
         <v>2</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3327,11 +3432,11 @@
         <v>3</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3344,10 +3449,10 @@
         <v>4</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="I32" s="40"/>
     </row>
@@ -3378,10 +3483,10 @@
         <v>7</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I34" s="40" t="s">
         <v>63</v>
@@ -3418,7 +3523,7 @@
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3427,13 +3532,13 @@
       </c>
       <c r="B37" s="86"/>
       <c r="C37" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F37" s="44">
         <v>1</v>
@@ -3456,11 +3561,11 @@
         <v>2</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3473,11 +3578,11 @@
         <v>3</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3490,10 +3595,10 @@
         <v>4</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="I40" s="40"/>
     </row>
@@ -3524,10 +3629,10 @@
         <v>7</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>63</v>
@@ -3564,7 +3669,7 @@
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3572,19 +3677,19 @@
         <v>1</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C45" s="85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D45" s="87" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G45" s="41" t="s">
         <v>62</v>
@@ -3604,11 +3709,11 @@
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3621,11 +3726,11 @@
         <v>3</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3638,10 +3743,10 @@
         <v>4</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="I48" s="40"/>
     </row>
@@ -3675,7 +3780,7 @@
         <v>75</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>63</v>
@@ -3712,7 +3817,7 @@
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3720,19 +3825,19 @@
         <v>1</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" s="85" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E53" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G53" s="41" t="s">
         <v>62</v>
@@ -3752,11 +3857,11 @@
         <v>2</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3769,11 +3874,11 @@
         <v>3</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3786,10 +3891,10 @@
         <v>4</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="I56" s="40"/>
     </row>
@@ -3823,7 +3928,7 @@
         <v>75</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I58" s="40" t="s">
         <v>63</v>
@@ -3860,7 +3965,7 @@
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3868,19 +3973,19 @@
         <v>1</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C61" s="85" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D61" s="87" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E61" s="89" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G61" s="41" t="s">
         <v>62</v>
@@ -3900,11 +4005,11 @@
         <v>2</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3917,11 +4022,11 @@
         <v>3</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3934,10 +4039,10 @@
         <v>4</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="I64" s="40"/>
     </row>
@@ -3971,7 +4076,7 @@
         <v>75</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I66" s="40" t="s">
         <v>63</v>
@@ -4004,11 +4109,11 @@
         <v>9</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4029,16 +4134,16 @@
         <v>21</v>
       </c>
       <c r="B70" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="85" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D70" s="87" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E70" s="87" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F70" s="44">
         <v>1</v>
@@ -4061,11 +4166,11 @@
         <v>2</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4073,16 +4178,16 @@
         <v>21</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" s="85" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D72" s="87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E72" s="87" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F72" s="44">
         <v>1</v>
@@ -4105,11 +4210,11 @@
         <v>2</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4122,11 +4227,11 @@
         <v>4</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H74" s="40"/>
       <c r="I74" s="40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4134,16 +4239,16 @@
         <v>21</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="85" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D75" s="87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" s="87" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F75" s="44">
         <v>1</v>
@@ -4166,26 +4271,26 @@
         <v>2</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="91"/>
       <c r="B77" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D77" s="95" t="s">
         <v>83</v>
       </c>
       <c r="E77" s="95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F77" s="44">
         <v>1</v>
@@ -4208,11 +4313,11 @@
         <v>2</v>
       </c>
       <c r="G78" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4225,7 +4330,7 @@
         <v>3</v>
       </c>
       <c r="G79" s="42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="40" t="s">
@@ -4242,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
@@ -4267,16 +4372,16 @@
     <row r="82" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="91"/>
       <c r="B82" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C82" s="91" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D82" s="95" t="s">
         <v>82</v>
       </c>
       <c r="E82" s="95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F82" s="44">
         <v>1</v>
@@ -4299,11 +4404,11 @@
         <v>2</v>
       </c>
       <c r="G83" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="40" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4316,7 +4421,7 @@
         <v>3</v>
       </c>
       <c r="G84" s="42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="40" t="s">
@@ -4333,7 +4438,7 @@
         <v>4</v>
       </c>
       <c r="G85" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="40" t="s">
@@ -4379,16 +4484,16 @@
         <v>1</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C88" s="85" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D88" s="87" t="s">
         <v>70</v>
       </c>
       <c r="E88" s="89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F88" s="44">
         <v>1</v>
@@ -4411,7 +4516,7 @@
         <v>2</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="40" t="s">
@@ -4428,11 +4533,11 @@
         <v>3</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="40" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4445,10 +4550,10 @@
         <v>5</v>
       </c>
       <c r="G91" s="42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H91" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I91" s="40"/>
     </row>
@@ -4482,7 +4587,7 @@
         <v>79</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I93" s="40" t="s">
         <v>63</v>
@@ -4529,19 +4634,19 @@
         <v>1</v>
       </c>
       <c r="B96" s="83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D96" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E96" s="89" t="s">
-        <v>180</v>
-      </c>
       <c r="F96" s="44" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G96" s="41" t="s">
         <v>62</v>
@@ -4561,11 +4666,11 @@
         <v>2</v>
       </c>
       <c r="G97" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H97" s="40"/>
       <c r="I97" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4578,11 +4683,11 @@
         <v>3</v>
       </c>
       <c r="G98" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H98" s="40"/>
       <c r="I98" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4595,10 +4700,10 @@
         <v>4</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H99" s="40" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="I99" s="40"/>
     </row>
@@ -4632,7 +4737,7 @@
         <v>75</v>
       </c>
       <c r="H101" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I101" s="40" t="s">
         <v>63</v>
@@ -4669,7 +4774,7 @@
       </c>
       <c r="H103" s="40"/>
       <c r="I103" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4677,19 +4782,19 @@
         <v>1</v>
       </c>
       <c r="B104" s="83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C104" s="85" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D104" s="87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E104" s="89" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F104" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G104" s="41" t="s">
         <v>62</v>
@@ -4709,11 +4814,11 @@
         <v>2</v>
       </c>
       <c r="G105" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H105" s="40"/>
       <c r="I105" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4726,11 +4831,11 @@
         <v>3</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H106" s="40"/>
       <c r="I106" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4743,10 +4848,10 @@
         <v>4</v>
       </c>
       <c r="G107" s="42" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="H107" s="40" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="I107" s="40"/>
     </row>
@@ -4780,7 +4885,7 @@
         <v>75</v>
       </c>
       <c r="H109" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I109" s="40" t="s">
         <v>63</v>
@@ -4817,7 +4922,7 @@
       </c>
       <c r="H111" s="40"/>
       <c r="I111" s="40" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4825,16 +4930,16 @@
         <v>21</v>
       </c>
       <c r="B112" s="83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C112" s="85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D112" s="87" t="s">
-        <v>90</v>
+        <v>189</v>
       </c>
       <c r="E112" s="87" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F112" s="44">
         <v>1</v>
@@ -4857,11 +4962,11 @@
         <v>2</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H113" s="40"/>
       <c r="I113" s="40" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4878,7 +4983,7 @@
       </c>
       <c r="H114" s="40"/>
       <c r="I114" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module1/K22T1_TeamBDS_ TC_Addthôngtintaikhoan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA102426-E0BB-4F0B-A246-BFAE407E55FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DBBF9-AA65-4D20-B91E-E3748422CCAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="210">
   <si>
     <t>Author</t>
   </si>
@@ -339,9 +339,6 @@
     <t>Hiển thị giao diện thêm chính sách và nút " quay lại "</t>
   </si>
   <si>
-    <t xml:space="preserve">trường thông tin mật khẩu phải được mã hóa </t>
-  </si>
-  <si>
     <t xml:space="preserve">không thể thêm tài khoản khi Admin để trống 1 trong các trường thông tin  </t>
   </si>
   <si>
@@ -354,9 +351,6 @@
     <t xml:space="preserve">Hiển thị giao diện thêm tài khoản  khi nhấn vào button " thêm tài khoản  " </t>
   </si>
   <si>
-    <t>Hiển thị danh sách các tài khoản công ty bao gồm : hình ảnh, tên đăng nhập, mật khẩu , sdt , email,….</t>
-  </si>
-  <si>
     <t>hiển thị thông báo lỗi khi admin để trống trường thông tin</t>
   </si>
   <si>
@@ -438,17 +432,6 @@
     <t xml:space="preserve">Hiển thị giao dien thêm tài khoản </t>
   </si>
   <si>
-    <t>tên đăng nhập :Trương Quang A
-- mật khẩu :********
-- SDT : 0235464646
-- Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
-- chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000</t>
-  </si>
-  <si>
     <t>truongquanA.png</t>
   </si>
   <si>
@@ -458,62 +441,6 @@
     <t>TC-BDS-ATTTK-2</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiễm tra trường thông tin mật khẩu phải được mã hóa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên đăng nhập 
-- nhập mật khẩu 
-- nhập SDT 
--nhập Email
-- Nhập ngày sinh 
-- Nhập địa chỉ 
-- Nhập Chức vụ 
--NHập phòng ban 
-Nhập Doanh số </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên đăng nhập 
--nhập mật khẩu 
-- nhập SDT 
--nhập Email
-- Nhập ngày sinh 
-- Nhập địa chỉ 
-- Nhập Chức vụ 
--NHập phòng ban 
-Nhập Doanh số </t>
-  </si>
-  <si>
-    <r>
-      <t>tên đăng nhập :Trương Quang A
-- mật khẩu :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>********</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-- SDT : 0235464646
-- Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
-- chức vụ : nhân viên 
-- Phòng ban : kinh doanh 
-- Doanh số : 5000000</t>
-    </r>
-  </si>
-  <si>
     <t>1+5:12H165:10H165:105:20H165:105:125:205:12H165:10H15:12</t>
   </si>
   <si>
@@ -527,9 +454,6 @@
   </si>
   <si>
     <t>TC-BDS-ATTTK-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiễm tra trường thông tin SDT , ngày sinh và doanh số bắt buộc là số . </t>
   </si>
   <si>
     <t>TR-BDS-ATTTK-17</t>
@@ -666,8 +590,11 @@
     <t xml:space="preserve"> Nhấn nút " Thêm tài khoản "</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập Mã nhân viên 
--Nhập tên đăng nhập 
+    <t xml:space="preserve">Kiểm tra Hiển thị nút quay lại trong giao diện thêm tài khoản </t>
+  </si>
+  <si>
+    <t>Nhập Mã nhân viên 
+-Nhập tên người dùng
 -nhập mật khẩu 
 - nhập SDT 
 -nhập Email
@@ -675,11 +602,10 @@
 - Nhập địa chỉ 
 - Nhập Chức vụ 
 -NHập phòng ban 
-Nhập Doanh số </t>
-  </si>
-  <si>
-    <t>Mã nhân viên : A 123
-tên đăng nhập :Trương Quang A
+-Nhập Nhóm</t>
+  </si>
+  <si>
+    <t>tên đăng nhập :Trương Quang A
 - mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
@@ -687,45 +613,167 @@
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
 - Phòng ban : kinh doanh 
-- Doanh số : 5000000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mã nhân viên
-Nhập tên đăng nhập 
--nhập mật khẩu 
-- nhập SDT 
--nhập Email
-- Nhập ngày sinh 
-- Nhập địa chỉ 
-- Nhập Chức vụ 
+- nhóm : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra trường thông tin SDT , ngày sinh bắt buộc là số . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Nhóm : 1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Mã nhân viên : a122
-tên đăng nhập :Trương Quang A
+    <t xml:space="preserve">Kiễm tra trường thông tin SDT , ngày sinh  bắt buộc là số . </t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mã nhân viên : A123
+tên người dùng :Trương Quang A
 - mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập mã nhân viên
-Nhập tên đăng nhập 
--nhập mật khẩu 
+- phòng : kinh doanh 
+- nhóm : 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mã nhân viên : A123
+tên người dùng  :Trương Quang A
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+- phòng : kinh doanh 
+- nhóm : 1 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã nhân viên : a123
+tên người dùng  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:Đễ trống </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+- mật khẩu :********
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+- phòng : kinh doanh 
+- nhóm : 1 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Luôn hiển thị trạng thái " Bật " cho các tài khoản mới thêm vào </t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Luôn hiển thị trạng thái " Bật " cho các tài khoản mới thêm vào </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quay lại giao diện " Quản lý tài khoản " và quan sát </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hiển thị trạng thái " Bật " cho các tài khoản mới thêm vào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trong giao diện thêm tài khoản bao gồm : hình ảnh,mã nhân viên ,tên người dùng, mật khẩu, SDT, Email, Ngày sinh, Địa chỉ, chức vụ ,phòng,nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn nút " thêm tài khoản " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trong giao diện thêm tài khoản bao gồm : hình ảnh,mã nhân viên ,tên người dùng, SDT, Email, Ngày sinh, Địa chỉ, chức vụ ,phòng,nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trong giao diện thêm tài khoản bao gồm : hình ảnh,mã nhân viên ,tên người dùng, , SDT, Email, Ngày sinh, Địa chỉ, chức vụ ,phòng,nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra mật khẩu được mặc dịnh do hệ thống tự tạo  </t>
+  </si>
+  <si>
+    <t>tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Nhóm : 1</t>
+  </si>
+  <si>
+    <t>Nhập Mã nhân viên 
+-Nhập tên người dùng
 - nhập SDT 
 -nhập Email
 - Nhập ngày sinh 
 - Nhập địa chỉ 
-- Nhập Chức vụ </t>
+- Nhập Chức vụ 
+-NHập phòng ban 
+-Nhập Nhóm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lNhập Mã nhân viên 
+-Nhập tên người dùng
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+-NHập phòng ban 
+-Nhập Nhóm
+</t>
+  </si>
+  <si>
+    <t>Mã nhân viên : a122
+tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : truongquang@gmail.com
+- Ngày sinh : 04/08/1998
+-Địa chỉ : 38 lê quý dôn 
+- chức vụ : nhân viên
+- phòng : kinh doanh 
+Nhóm : 1</t>
   </si>
   <si>
     <r>
       <t>mã nhân viên : A123
 tên đăng nhập :Trương Quang A
-- mật khẩu :********
 - SDT :</t>
     </r>
     <r>
@@ -767,19 +815,21 @@
       <t xml:space="preserve">
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
+-phòng : kinh doanh 
+- nhóm : 1 
 </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">Mã nhân viên : A123
-tên đăng nhập :Trương Quang A
-- mật khẩu :********
+tên nguoi :Trương Quang A
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-</t>
+- phòng : kình doanh 
+- Nhóm : 1 </t>
   </si>
   <si>
     <r>
@@ -803,41 +853,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- mật khẩu :********
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
-</t>
+- phòng : kinh doanh 
+- nhóm : 1 </t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">mã nhân viên : A123
-tên đăng nhập :Trương Quang A
-- mật khẩu :********
+tên người dùng  :Trương Quang A
 - SDT : 0235464646
 - Email : truongquang@gmail.com
 - Ngày sinh : 04/08/1998
 -Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
+- phòng : kinh doanh 
+- nhóm : 1 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Nhập Mã nhân viên 
-Nhập tên đăng nhập 
--nhập mật khẩu 
-- nhập SDT 
--nhập Email
-- Nhập ngày sinh 
-- Nhập địa chỉ 
-- Nhập Chức vụ 
-</t>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trường thông tin mật khẩu được mặc dịnh do hệ thống tự tạo  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng không thể thêm Email có trước đó </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi " Email đã tồn tại " khi người dùng nhập email bị trùng </t>
+  </si>
+  <si>
+    <t>TR-BDS-ATTTK-18</t>
+  </si>
+  <si>
+    <t>TR-BDS-ATTTK-19</t>
+  </si>
+  <si>
+    <t>TC-BDS-ATTTK-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Người dùng không thể thêm Email có trước đó </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Mã nhân viên : a123
-tên đăng nhập </t>
+      <t xml:space="preserve">Admin đang nhập vào WebAdmin bằng tài khoản của mình 
+'có thông tin bao gồm  : 
+- hình ảnh 
+- mã nhân viên : A123
+-tên đăng nhập :Trương Quang A
+- SDT : 0235464646
+- Email : </t>
     </r>
     <r>
       <rPr>
@@ -846,7 +915,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">:Đễ trống </t>
+      <t>trinhnhuphuong.qn1@gmail.com</t>
     </r>
     <r>
       <rPr>
@@ -856,17 +925,17 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-- mật khẩu :********
-- SDT : 0235464646
-- Email : truongquang@gmail.com
-- Ngày sinh : 04/08/1998
--Địa chỉ : 38 lê quý dôn 
 - chức vụ : nhân viên 
+- Phòng ban : kinh doanh 
+- Nhóm : 1
 </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra Hiển thị nút quay lại trong giao diện thêm tài khoản </t>
+    <t>TC-BDS-ATTTK-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Hiển thị thông báo lỗi " Email đã tồn tại " khi người dùng nhập email bị trùng </t>
   </si>
 </sst>
 </file>
@@ -1519,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1652,6 +1721,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1757,6 +1829,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1818,6 +1899,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2144,7 +2231,7 @@
   <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2159,31 +2246,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -2231,7 +2318,9 @@
       <c r="B9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>43958</v>
+      </c>
       <c r="D9" s="10" t="s">
         <v>54</v>
       </c>
@@ -2243,7 +2332,9 @@
       <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>43969</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>54</v>
       </c>
@@ -2258,21 +2349,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2281,40 +2372,40 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2353,10 +2444,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C634FC7-125A-4085-B576-D3E7F0759EE5}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2373,80 +2464,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="F2" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="77"/>
+      <c r="C3" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2479,11 +2570,11 @@
         <v>1</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>36</v>
@@ -2494,16 +2585,16 @@
       <c r="G9" s="33"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>2</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="16" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>36</v>
@@ -2519,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="16" t="s">
@@ -2539,11 +2630,11 @@
         <v>4</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>36</v>
@@ -2559,7 +2650,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="16" t="s">
@@ -2579,11 +2670,11 @@
         <v>6</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>37</v>
@@ -2597,11 +2688,11 @@
     <row r="15" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27"/>
       <c r="B15" s="37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>36</v>
@@ -2617,13 +2708,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>35</v>
@@ -2639,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>35</v>
@@ -2656,18 +2747,18 @@
       <c r="G17" s="33"/>
       <c r="H17" s="17"/>
     </row>
-    <row r="18" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>9</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>35</v>
@@ -2683,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C19" s="34" t="s">
         <v>45</v>
@@ -2705,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C20" s="34" t="s">
         <v>45</v>
@@ -2727,7 +2818,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -2749,7 +2840,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>45</v>
@@ -2770,13 +2861,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>35</v>
@@ -2786,18 +2877,18 @@
       </c>
       <c r="H23" s="17"/>
     </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>14</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C24" s="34" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>35</v>
@@ -2806,6 +2897,67 @@
         <v>17</v>
       </c>
       <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <v>14</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>14</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>14</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2831,7 +2983,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$G$3:$G$6</xm:f>
           </x14:formula1>
-          <xm:sqref>E9:E24</xm:sqref>
+          <xm:sqref>E9:E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0669D02E-8B0A-448F-BAD2-6D1A700CE8C7}">
           <x14:formula1>
@@ -2843,7 +2995,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$3:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F9:F24</xm:sqref>
+          <xm:sqref>F9:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2854,11 +3006,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:J140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2867,7 +3019,7 @@
     <col min="2" max="2" width="14.140625" style="35" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="41.7109375" style="1" customWidth="1"/>
@@ -2875,26 +3027,26 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
@@ -2920,35 +3072,38 @@
       <c r="I3" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100" t="s">
+      <c r="J3" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85">
         <v>1</v>
       </c>
-      <c r="B5" s="83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>175</v>
+      <c r="B5" s="87" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F5" s="44">
         <v>1</v>
@@ -2960,64 +3115,70 @@
       <c r="I5" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="90"/>
+      <c r="J5" s="82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="94"/>
       <c r="F6" s="44">
         <v>2</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J6" s="83"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="44">
         <v>3</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="H7" s="40"/>
       <c r="I7" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="44">
         <v>4</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>179</v>
+        <v>192</v>
+      </c>
+      <c r="H8" s="46" t="s">
+        <v>174</v>
       </c>
       <c r="I8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="90"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="94"/>
       <c r="F9" s="44">
         <v>6</v>
       </c>
@@ -3028,13 +3189,14 @@
       <c r="I9" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="90"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="94"/>
       <c r="F10" s="44">
         <v>7</v>
       </c>
@@ -3042,18 +3204,19 @@
         <v>75</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I10" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="90"/>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="44">
         <v>8</v>
       </c>
@@ -3064,13 +3227,14 @@
       <c r="I11" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="90"/>
+      <c r="J11" s="83"/>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="94"/>
       <c r="F12" s="44">
         <v>9</v>
       </c>
@@ -3079,24 +3243,25 @@
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81">
+        <v>123</v>
+      </c>
+      <c r="J12" s="84"/>
+    </row>
+    <row r="13" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="85">
         <v>1</v>
       </c>
-      <c r="B13" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>175</v>
+      <c r="B13" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F13" s="44">
         <v>1</v>
@@ -3108,64 +3273,70 @@
       <c r="I13" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="90"/>
+      <c r="J13" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="44">
         <v>2</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="40"/>
       <c r="I14" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="44">
         <v>3</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J15" s="83"/>
+    </row>
+    <row r="16" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="94"/>
       <c r="F16" s="44">
         <v>4</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>131</v>
+        <v>191</v>
       </c>
       <c r="I16" s="40"/>
-    </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="90"/>
+      <c r="J16" s="83"/>
+    </row>
+    <row r="17" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="44">
         <v>6</v>
       </c>
@@ -3176,13 +3347,14 @@
       <c r="I17" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="90"/>
+      <c r="J17" s="83"/>
+    </row>
+    <row r="18" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="94"/>
       <c r="F18" s="44">
         <v>7</v>
       </c>
@@ -3190,18 +3362,19 @@
         <v>75</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="90"/>
+      <c r="J18" s="83"/>
+    </row>
+    <row r="19" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="44">
         <v>8</v>
       </c>
@@ -3212,13 +3385,14 @@
       <c r="I19" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="90"/>
+      <c r="J19" s="83"/>
+    </row>
+    <row r="20" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="94"/>
       <c r="F20" s="44">
         <v>9</v>
       </c>
@@ -3227,24 +3401,25 @@
       </c>
       <c r="H20" s="40"/>
       <c r="I20" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="84"/>
+    </row>
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85">
+        <v>1</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="89" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81">
-        <v>1</v>
-      </c>
-      <c r="B21" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="89" t="s">
-        <v>175</v>
+      <c r="D21" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F21" s="44">
         <v>1</v>
@@ -3256,64 +3431,70 @@
       <c r="I21" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
+      <c r="J21" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="44">
         <v>2</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J22" s="83"/>
+    </row>
+    <row r="23" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="86"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="94"/>
       <c r="F23" s="44">
         <v>3</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J23" s="83"/>
+    </row>
+    <row r="24" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="86"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="44">
         <v>4</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="I24" s="40"/>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="90"/>
+      <c r="J24" s="83"/>
+    </row>
+    <row r="25" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="44">
         <v>6</v>
       </c>
@@ -3324,32 +3505,34 @@
       <c r="I25" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="90"/>
+      <c r="J25" s="83"/>
+    </row>
+    <row r="26" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="86"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="94"/>
       <c r="F26" s="44">
         <v>7</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I26" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="90"/>
+      <c r="J26" s="83"/>
+    </row>
+    <row r="27" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="86"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="94"/>
       <c r="F27" s="44">
         <v>8</v>
       </c>
@@ -3360,13 +3543,14 @@
       <c r="I27" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="90"/>
+      <c r="J27" s="83"/>
+    </row>
+    <row r="28" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="86"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="44">
         <v>9</v>
       </c>
@@ -3375,24 +3559,25 @@
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="81">
+        <v>123</v>
+      </c>
+      <c r="J28" s="84"/>
+    </row>
+    <row r="29" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="85">
         <v>1</v>
       </c>
-      <c r="B29" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="D29" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29" s="89" t="s">
-        <v>175</v>
+      <c r="B29" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F29" s="44">
         <v>1</v>
@@ -3404,64 +3589,70 @@
       <c r="I29" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="90"/>
+      <c r="J29" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="86"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="44">
         <v>2</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J30" s="83"/>
+    </row>
+    <row r="31" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="86"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="44">
         <v>3</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J31" s="83"/>
+    </row>
+    <row r="32" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="86"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="94"/>
       <c r="F32" s="44">
         <v>4</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="I32" s="40"/>
-    </row>
-    <row r="33" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="90"/>
+      <c r="J32" s="83"/>
+    </row>
+    <row r="33" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="86"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="44">
         <v>6</v>
       </c>
@@ -3472,32 +3663,34 @@
       <c r="I33" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="90"/>
+      <c r="J33" s="83"/>
+    </row>
+    <row r="34" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="86"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="94"/>
       <c r="F34" s="44">
         <v>7</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I34" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="90"/>
+      <c r="J34" s="83"/>
+    </row>
+    <row r="35" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="86"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="44">
         <v>8</v>
       </c>
@@ -3508,13 +3701,14 @@
       <c r="I35" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="90"/>
+      <c r="J35" s="83"/>
+    </row>
+    <row r="36" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="86"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="94"/>
       <c r="F36" s="44">
         <v>9</v>
       </c>
@@ -3523,22 +3717,23 @@
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="81">
+        <v>123</v>
+      </c>
+      <c r="J36" s="84"/>
+    </row>
+    <row r="37" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85">
         <v>1</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="E37" s="89" t="s">
+      <c r="B37" s="90"/>
+      <c r="C37" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="91" t="s">
         <v>175</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F37" s="44">
         <v>1</v>
@@ -3550,64 +3745,70 @@
       <c r="I37" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="90"/>
+      <c r="J37" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="86"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="94"/>
       <c r="F38" s="44">
         <v>2</v>
       </c>
       <c r="G38" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J38" s="83"/>
+    </row>
+    <row r="39" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="86"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="44">
         <v>3</v>
       </c>
       <c r="G39" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H39" s="40"/>
       <c r="I39" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J39" s="83"/>
+    </row>
+    <row r="40" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="86"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="94"/>
       <c r="F40" s="44">
         <v>4</v>
       </c>
       <c r="G40" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="I40" s="40"/>
-    </row>
-    <row r="41" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="90"/>
+      <c r="J40" s="83"/>
+    </row>
+    <row r="41" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="86"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="94"/>
       <c r="F41" s="44">
         <v>6</v>
       </c>
@@ -3618,32 +3819,34 @@
       <c r="I41" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="90"/>
+      <c r="J41" s="83"/>
+    </row>
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="86"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="94"/>
       <c r="F42" s="44">
         <v>7</v>
       </c>
       <c r="G42" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="90"/>
+      <c r="J42" s="83"/>
+    </row>
+    <row r="43" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="86"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="44">
         <v>8</v>
       </c>
@@ -3654,13 +3857,14 @@
       <c r="I43" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="90"/>
+      <c r="J43" s="83"/>
+    </row>
+    <row r="44" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="86"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="94"/>
       <c r="F44" s="44">
         <v>9</v>
       </c>
@@ -3669,27 +3873,28 @@
       </c>
       <c r="H44" s="40"/>
       <c r="I44" s="40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81">
+        <v>133</v>
+      </c>
+      <c r="J44" s="84"/>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="85">
         <v>1</v>
       </c>
-      <c r="B45" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="87" t="s">
+      <c r="B45" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="89" t="s">
-        <v>175</v>
+      <c r="E45" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G45" s="41" t="s">
         <v>62</v>
@@ -3698,64 +3903,70 @@
       <c r="I45" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="90"/>
+      <c r="J45" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="86"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="94"/>
       <c r="F46" s="44">
         <v>2</v>
       </c>
       <c r="G46" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H46" s="40"/>
       <c r="I46" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J46" s="83"/>
+    </row>
+    <row r="47" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="86"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="94"/>
       <c r="F47" s="44">
         <v>3</v>
       </c>
       <c r="G47" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H47" s="40"/>
       <c r="I47" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J47" s="83"/>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="86"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="94"/>
       <c r="F48" s="44">
         <v>4</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I48" s="40"/>
-    </row>
-    <row r="49" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="90"/>
+      <c r="J48" s="83"/>
+    </row>
+    <row r="49" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="86"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="44">
         <v>6</v>
       </c>
@@ -3766,13 +3977,14 @@
       <c r="I49" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="90"/>
+      <c r="J49" s="83"/>
+    </row>
+    <row r="50" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="86"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="94"/>
       <c r="F50" s="44">
         <v>7</v>
       </c>
@@ -3780,18 +3992,19 @@
         <v>75</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I50" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="90"/>
+      <c r="J50" s="83"/>
+    </row>
+    <row r="51" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="86"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="94"/>
       <c r="F51" s="44">
         <v>8</v>
       </c>
@@ -3802,13 +4015,14 @@
       <c r="I51" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="90"/>
+      <c r="J51" s="83"/>
+    </row>
+    <row r="52" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="86"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="44">
         <v>9</v>
       </c>
@@ -3817,27 +4031,28 @@
       </c>
       <c r="H52" s="40"/>
       <c r="I52" s="40" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="81">
+        <v>132</v>
+      </c>
+      <c r="J52" s="84"/>
+    </row>
+    <row r="53" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="85">
         <v>1</v>
       </c>
-      <c r="B53" s="83" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="89" t="s">
-        <v>175</v>
+      <c r="B53" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G53" s="41" t="s">
         <v>62</v>
@@ -3846,64 +4061,70 @@
       <c r="I53" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="90"/>
+      <c r="J53" s="82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="86"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="44">
         <v>2</v>
       </c>
       <c r="G54" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H54" s="40"/>
       <c r="I54" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J54" s="83"/>
+    </row>
+    <row r="55" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="86"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="44">
         <v>3</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J55" s="83"/>
+    </row>
+    <row r="56" spans="1:10" s="43" customFormat="1" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="86"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="44">
         <v>4</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="I56" s="40"/>
-    </row>
-    <row r="57" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="90"/>
+      <c r="J56" s="83"/>
+    </row>
+    <row r="57" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="86"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="94"/>
       <c r="F57" s="44">
         <v>6</v>
       </c>
@@ -3914,13 +4135,14 @@
       <c r="I57" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="90"/>
+      <c r="J57" s="83"/>
+    </row>
+    <row r="58" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="86"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="94"/>
       <c r="F58" s="44">
         <v>7</v>
       </c>
@@ -3928,18 +4150,19 @@
         <v>75</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I58" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="90"/>
+      <c r="J58" s="83"/>
+    </row>
+    <row r="59" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="86"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="94"/>
       <c r="F59" s="44">
         <v>8</v>
       </c>
@@ -3950,13 +4173,14 @@
       <c r="I59" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="90"/>
+      <c r="J59" s="83"/>
+    </row>
+    <row r="60" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="86"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="94"/>
       <c r="F60" s="44">
         <v>9</v>
       </c>
@@ -3965,27 +4189,28 @@
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="81">
+        <v>138</v>
+      </c>
+      <c r="J60" s="84"/>
+    </row>
+    <row r="61" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="85">
         <v>1</v>
       </c>
-      <c r="B61" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>147</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="89" t="s">
-        <v>175</v>
+      <c r="B61" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="93" t="s">
+        <v>167</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G61" s="41" t="s">
         <v>62</v>
@@ -3994,64 +4219,72 @@
       <c r="I61" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="88"/>
-      <c r="E62" s="90"/>
+      <c r="J61" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="86"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="94"/>
       <c r="F62" s="44">
         <v>2</v>
       </c>
       <c r="G62" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J62" s="83"/>
+    </row>
+    <row r="63" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="86"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="94"/>
       <c r="F63" s="44">
         <v>3</v>
       </c>
       <c r="G63" s="42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="86"/>
-      <c r="D64" s="88"/>
-      <c r="E64" s="90"/>
+        <v>121</v>
+      </c>
+      <c r="J63" s="83"/>
+    </row>
+    <row r="64" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="86"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="94"/>
       <c r="F64" s="44">
         <v>4</v>
       </c>
       <c r="G64" s="42" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="I64" s="40"/>
-    </row>
-    <row r="65" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="88"/>
-      <c r="E65" s="90"/>
+        <v>198</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="J64" s="83"/>
+    </row>
+    <row r="65" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="86"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="44">
         <v>6</v>
       </c>
@@ -4062,13 +4295,14 @@
       <c r="I65" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="86"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="90"/>
+      <c r="J65" s="83"/>
+    </row>
+    <row r="66" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="86"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="94"/>
       <c r="F66" s="44">
         <v>7</v>
       </c>
@@ -4076,18 +4310,19 @@
         <v>75</v>
       </c>
       <c r="H66" s="40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I66" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="88"/>
-      <c r="E67" s="90"/>
+      <c r="J66" s="83"/>
+    </row>
+    <row r="67" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="86"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="44">
         <v>8</v>
       </c>
@@ -4098,901 +4333,1493 @@
       <c r="I67" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="86"/>
-      <c r="D68" s="88"/>
-      <c r="E68" s="90"/>
+      <c r="J67" s="83"/>
+    </row>
+    <row r="68" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="86"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="92"/>
+      <c r="E68" s="94"/>
       <c r="F68" s="44">
         <v>9</v>
       </c>
       <c r="G68" s="42" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="100"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="100"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-    </row>
-    <row r="70" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="81">
-        <v>21</v>
-      </c>
-      <c r="B70" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="C70" s="85" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="E70" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" s="84"/>
+    </row>
+    <row r="69" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="85">
+        <v>1</v>
+      </c>
+      <c r="B69" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="F69" s="44">
+        <v>1</v>
+      </c>
+      <c r="G69" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="82" t="s">
         <v>176</v>
       </c>
+    </row>
+    <row r="70" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="86"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="94"/>
       <c r="F70" s="44">
-        <v>1</v>
-      </c>
-      <c r="G70" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="88"/>
-      <c r="E71" s="88"/>
+        <v>2</v>
+      </c>
+      <c r="G70" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J70" s="83"/>
+    </row>
+    <row r="71" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="86"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="94"/>
       <c r="F71" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G71" s="42" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="81">
-        <v>21</v>
-      </c>
-      <c r="B72" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="D72" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="E72" s="87" t="s">
-        <v>176</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="J71" s="83"/>
+    </row>
+    <row r="72" spans="1:10" s="43" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="86"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="94"/>
       <c r="F72" s="44">
-        <v>1</v>
-      </c>
-      <c r="G72" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" s="40"/>
+      <c r="J72" s="83"/>
+    </row>
+    <row r="73" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="86"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="94"/>
       <c r="F73" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G73" s="42" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="86"/>
-      <c r="D74" s="88"/>
-      <c r="E74" s="88"/>
+        <v>74</v>
+      </c>
+      <c r="J73" s="83"/>
+    </row>
+    <row r="74" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="86"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="94"/>
       <c r="F74" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G74" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H74" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="H74" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="I74" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="81">
-        <v>21</v>
-      </c>
-      <c r="B75" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="C75" s="85" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="87" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="87" t="s">
-        <v>176</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="J74" s="83"/>
+    </row>
+    <row r="75" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="86"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="94"/>
       <c r="F75" s="44">
-        <v>1</v>
-      </c>
-      <c r="G75" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="39" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="86"/>
-      <c r="D76" s="88"/>
-      <c r="E76" s="88"/>
+        <v>8</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J75" s="83"/>
+    </row>
+    <row r="76" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="86"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="90"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="94"/>
       <c r="F76" s="44">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G76" s="42" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="H76" s="40"/>
       <c r="I76" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
-      <c r="B77" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="95" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="44">
+        <v>202</v>
+      </c>
+      <c r="J76" s="84"/>
+    </row>
+    <row r="77" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="104"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="104"/>
+    </row>
+    <row r="78" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="85">
+        <v>21</v>
+      </c>
+      <c r="B78" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="E78" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F78" s="44">
         <v>1</v>
       </c>
-      <c r="G77" s="41" t="s">
+      <c r="G78" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38" t="s">
+      <c r="H78" s="38"/>
+      <c r="I78" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="86"/>
-      <c r="D78" s="88"/>
-      <c r="E78" s="88"/>
-      <c r="F78" s="44">
+      <c r="J78" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="86"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="44">
         <v>2</v>
       </c>
-      <c r="G78" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="88"/>
-      <c r="E79" s="88"/>
-      <c r="F79" s="44">
-        <v>3</v>
-      </c>
       <c r="G79" s="42" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="88"/>
+        <v>144</v>
+      </c>
+      <c r="J79" s="83"/>
+    </row>
+    <row r="80" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="85">
+        <v>21</v>
+      </c>
+      <c r="B80" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="91" t="s">
+        <v>168</v>
+      </c>
       <c r="F80" s="44">
-        <v>4</v>
-      </c>
-      <c r="G80" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
-    </row>
-    <row r="81" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="98"/>
-      <c r="B81" s="99"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
+        <v>1</v>
+      </c>
+      <c r="G80" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J80" s="83" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="86"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="90"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
       <c r="F81" s="44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G81" s="42" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
-      <c r="B82" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="E82" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="J81" s="83"/>
+    </row>
+    <row r="82" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="86"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="44">
+        <v>4</v>
+      </c>
+      <c r="G82" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J82" s="84"/>
+    </row>
+    <row r="83" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="85">
+        <v>21</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="44">
+        <v>1</v>
+      </c>
+      <c r="G83" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H83" s="38"/>
+      <c r="I83" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J83" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="F82" s="44">
+    </row>
+    <row r="84" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="86"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="44">
+        <v>2</v>
+      </c>
+      <c r="G84" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107" t="s">
+        <v>150</v>
+      </c>
+      <c r="J84" s="83"/>
+    </row>
+    <row r="85" spans="1:10" s="39" customFormat="1" ht="144.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="86"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="44">
+        <v>3</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H85" s="40"/>
+      <c r="I85" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J85" s="84"/>
+    </row>
+    <row r="86" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="95"/>
+      <c r="B86" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" s="44">
         <v>1</v>
       </c>
-      <c r="G82" s="41" t="s">
+      <c r="G86" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38" t="s">
+      <c r="H86" s="38"/>
+      <c r="I86" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="86"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="88"/>
-      <c r="E83" s="88"/>
-      <c r="F83" s="44">
+      <c r="J86" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="90"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="44">
         <v>2</v>
       </c>
-      <c r="G83" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="86"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="44">
-        <v>3</v>
-      </c>
-      <c r="G84" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="86"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="88"/>
-      <c r="E85" s="88"/>
-      <c r="F85" s="44">
-        <v>4</v>
-      </c>
-      <c r="G85" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H85" s="40"/>
-      <c r="I85" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="86"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="86"/>
-      <c r="D86" s="88"/>
-      <c r="E86" s="88"/>
-      <c r="F86" s="44">
-        <v>5</v>
-      </c>
-      <c r="G86" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="92"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="92"/>
-      <c r="D87" s="96"/>
-      <c r="E87" s="96"/>
-      <c r="F87" s="44">
-        <v>6</v>
-      </c>
       <c r="G87" s="42" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="81">
-        <v>1</v>
-      </c>
-      <c r="B88" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="C88" s="85" t="s">
-        <v>165</v>
-      </c>
-      <c r="D88" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="E88" s="89" t="s">
-        <v>176</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="J87" s="83"/>
+    </row>
+    <row r="88" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="90"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
       <c r="F88" s="44">
-        <v>1</v>
-      </c>
-      <c r="G88" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="88"/>
-      <c r="E89" s="90"/>
+        <v>3</v>
+      </c>
+      <c r="G88" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88" s="83"/>
+    </row>
+    <row r="89" spans="1:10" s="43" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="90"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
       <c r="F89" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G89" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="86"/>
-      <c r="D90" s="88"/>
-      <c r="E90" s="90"/>
+        <v>171</v>
+      </c>
+      <c r="H89" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I89" s="40"/>
+      <c r="J89" s="83"/>
+    </row>
+    <row r="90" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="102"/>
+      <c r="B90" s="103"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
       <c r="F90" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G90" s="42" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="40" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="88"/>
-      <c r="E91" s="90"/>
+        <v>64</v>
+      </c>
+      <c r="J90" s="84"/>
+    </row>
+    <row r="91" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="95"/>
+      <c r="B91" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C91" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="99" t="s">
+        <v>168</v>
+      </c>
       <c r="F91" s="44">
-        <v>5</v>
-      </c>
-      <c r="G91" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="H91" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="I91" s="40"/>
-    </row>
-    <row r="92" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="88"/>
-      <c r="E92" s="90"/>
+        <v>1</v>
+      </c>
+      <c r="G91" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H91" s="38"/>
+      <c r="I91" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J91" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="90"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
       <c r="F92" s="44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G92" s="42" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="H92" s="40"/>
       <c r="I92" s="40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="90"/>
+        <v>155</v>
+      </c>
+      <c r="J92" s="83"/>
+    </row>
+    <row r="93" spans="1:10" s="43" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="90"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
       <c r="F93" s="44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G93" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="H93" s="40" t="s">
-        <v>167</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H93" s="40"/>
       <c r="I93" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="86"/>
-      <c r="D94" s="88"/>
-      <c r="E94" s="90"/>
+        <v>81</v>
+      </c>
+      <c r="J93" s="83"/>
+    </row>
+    <row r="94" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="90"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
       <c r="F94" s="44">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G94" s="42" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="H94" s="40" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="I94" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="88"/>
-      <c r="E95" s="90"/>
+        <v>81</v>
+      </c>
+      <c r="J94" s="83"/>
+    </row>
+    <row r="95" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="90"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="90"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
       <c r="F95" s="44">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G95" s="42" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H95" s="40"/>
       <c r="I95" s="40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="81">
+        <v>87</v>
+      </c>
+      <c r="J95" s="83"/>
+    </row>
+    <row r="96" spans="1:10" s="43" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="96"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="96"/>
+      <c r="D96" s="100"/>
+      <c r="E96" s="100"/>
+      <c r="F96" s="44">
+        <v>6</v>
+      </c>
+      <c r="G96" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" s="40"/>
+      <c r="I96" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J96" s="84"/>
+    </row>
+    <row r="97" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="85">
         <v>1</v>
       </c>
-      <c r="B96" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E96" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F96" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="G96" s="41" t="s">
+      <c r="B97" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="89" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="44">
+        <v>1</v>
+      </c>
+      <c r="G97" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38" t="s">
+      <c r="H97" s="38"/>
+      <c r="I97" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="88"/>
-      <c r="E97" s="90"/>
-      <c r="F97" s="44">
+      <c r="J97" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="86"/>
+      <c r="B98" s="88"/>
+      <c r="C98" s="90"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="94"/>
+      <c r="F98" s="44">
         <v>2</v>
       </c>
-      <c r="G97" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="88"/>
-      <c r="E98" s="90"/>
-      <c r="F98" s="44">
-        <v>3</v>
-      </c>
       <c r="G98" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H98" s="40"/>
       <c r="I98" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="86"/>
-      <c r="D99" s="88"/>
-      <c r="E99" s="90"/>
+        <v>78</v>
+      </c>
+      <c r="J98" s="83"/>
+    </row>
+    <row r="99" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="86"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="90"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="94"/>
       <c r="F99" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H99" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I99" s="40"/>
-    </row>
-    <row r="100" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="88"/>
-      <c r="E100" s="90"/>
+        <v>158</v>
+      </c>
+      <c r="H99" s="40"/>
+      <c r="I99" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J99" s="83"/>
+    </row>
+    <row r="100" spans="1:10" s="43" customFormat="1" ht="129.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="86"/>
+      <c r="B100" s="88"/>
+      <c r="C100" s="90"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="94"/>
       <c r="F100" s="44">
+        <v>5</v>
+      </c>
+      <c r="G100" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H100" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="I100" s="40"/>
+      <c r="J100" s="83"/>
+    </row>
+    <row r="101" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="86"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="94"/>
+      <c r="F101" s="44">
         <v>6</v>
       </c>
-      <c r="G100" s="42" t="s">
+      <c r="G101" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40" t="s">
+      <c r="H101" s="40"/>
+      <c r="I101" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="84"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="90"/>
-      <c r="F101" s="44">
+      <c r="J101" s="83"/>
+    </row>
+    <row r="102" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="86"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="94"/>
+      <c r="F102" s="44">
         <v>7</v>
       </c>
-      <c r="G101" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="H101" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I101" s="40" t="s">
+      <c r="G102" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="H102" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="86"/>
-      <c r="D102" s="88"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="44">
+      <c r="J102" s="83"/>
+    </row>
+    <row r="103" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="86"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="90"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="44">
         <v>8</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G103" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="H102" s="40"/>
-      <c r="I102" s="40" t="s">
+      <c r="H103" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="40" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="84"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="88"/>
-      <c r="E103" s="90"/>
-      <c r="F103" s="44">
+      <c r="J103" s="83"/>
+    </row>
+    <row r="104" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="86"/>
+      <c r="B104" s="88"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="94"/>
+      <c r="F104" s="44">
         <v>9</v>
       </c>
-      <c r="G103" s="42" t="s">
+      <c r="G104" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="H103" s="40"/>
-      <c r="I103" s="40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="81">
+      <c r="H104" s="40"/>
+      <c r="I104" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J104" s="84"/>
+    </row>
+    <row r="105" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="85">
         <v>1</v>
       </c>
-      <c r="B104" s="83" t="s">
-        <v>116</v>
-      </c>
-      <c r="C104" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="D104" s="87" t="s">
+      <c r="B105" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="E104" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F104" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="G104" s="41" t="s">
+      <c r="F105" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="G105" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38" t="s">
+      <c r="H105" s="38"/>
+      <c r="I105" s="38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="84"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="88"/>
-      <c r="E105" s="90"/>
-      <c r="F105" s="44">
+      <c r="J105" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="86"/>
+      <c r="B106" s="88"/>
+      <c r="C106" s="90"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="94"/>
+      <c r="F106" s="44">
         <v>2</v>
       </c>
-      <c r="G105" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H105" s="40"/>
-      <c r="I105" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="84"/>
-      <c r="C106" s="86"/>
-      <c r="D106" s="88"/>
-      <c r="E106" s="90"/>
-      <c r="F106" s="44">
-        <v>3</v>
-      </c>
       <c r="G106" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H106" s="40"/>
       <c r="I106" s="40" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="84"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="88"/>
-      <c r="E107" s="90"/>
+        <v>119</v>
+      </c>
+      <c r="J106" s="83"/>
+    </row>
+    <row r="107" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="86"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="90"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="94"/>
       <c r="F107" s="44">
+        <v>3</v>
+      </c>
+      <c r="G107" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H107" s="40"/>
+      <c r="I107" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J107" s="83"/>
+    </row>
+    <row r="108" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="86"/>
+      <c r="B108" s="88"/>
+      <c r="C108" s="90"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="94"/>
+      <c r="F108" s="44">
         <v>4</v>
       </c>
-      <c r="G107" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H107" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="I107" s="40"/>
-    </row>
-    <row r="108" spans="1:9" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="86"/>
-      <c r="D108" s="88"/>
-      <c r="E108" s="90"/>
-      <c r="F108" s="44">
+      <c r="G108" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="I108" s="40"/>
+      <c r="J108" s="83"/>
+    </row>
+    <row r="109" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="86"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="90"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="94"/>
+      <c r="F109" s="44">
         <v>6</v>
       </c>
-      <c r="G108" s="42" t="s">
+      <c r="G109" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40" t="s">
+      <c r="H109" s="40"/>
+      <c r="I109" s="40" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="84"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="88"/>
-      <c r="E109" s="90"/>
-      <c r="F109" s="44">
+      <c r="J109" s="83"/>
+    </row>
+    <row r="110" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="86"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="90"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="44">
         <v>7</v>
       </c>
-      <c r="G109" s="42" t="s">
+      <c r="G110" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="H109" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="I109" s="40" t="s">
+      <c r="H110" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I110" s="40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="86"/>
-      <c r="D110" s="88"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="44">
+      <c r="J110" s="83"/>
+    </row>
+    <row r="111" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="86"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="94"/>
+      <c r="F111" s="44">
         <v>8</v>
       </c>
-      <c r="G110" s="42" t="s">
+      <c r="G111" s="42" t="s">
         <v>77</v>
-      </c>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="84"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="44">
-        <v>9</v>
-      </c>
-      <c r="G111" s="42" t="s">
-        <v>76</v>
       </c>
       <c r="H111" s="40"/>
       <c r="I111" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="81">
-        <v>21</v>
-      </c>
-      <c r="B112" s="83" t="s">
-        <v>117</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="E112" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="J111" s="83"/>
+    </row>
+    <row r="112" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="86"/>
+      <c r="B112" s="88"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="44">
+        <v>9</v>
+      </c>
+      <c r="G112" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" s="40"/>
+      <c r="I112" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J112" s="84"/>
+    </row>
+    <row r="113" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="85">
+        <v>1</v>
+      </c>
+      <c r="B113" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E113" s="93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F113" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="G113" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H113" s="38"/>
+      <c r="I113" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J113" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="F112" s="44">
-        <v>1</v>
-      </c>
-      <c r="G112" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="84"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="88"/>
-      <c r="E113" s="88"/>
-      <c r="F113" s="44">
+    </row>
+    <row r="114" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="86"/>
+      <c r="B114" s="88"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="44">
         <v>2</v>
       </c>
-      <c r="G113" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="84"/>
-      <c r="C114" s="86"/>
-      <c r="D114" s="88"/>
-      <c r="E114" s="88"/>
-      <c r="F114" s="44">
-        <v>4</v>
-      </c>
       <c r="G114" s="42" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="H114" s="40"/>
       <c r="I114" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J114" s="83"/>
+    </row>
+    <row r="115" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="86"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="90"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="94"/>
+      <c r="F115" s="44">
+        <v>3</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H115" s="40"/>
+      <c r="I115" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J115" s="83"/>
+    </row>
+    <row r="116" spans="1:10" s="43" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="86"/>
+      <c r="B116" s="88"/>
+      <c r="C116" s="90"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="94"/>
+      <c r="F116" s="44">
+        <v>4</v>
+      </c>
+      <c r="G116" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H116" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="I116" s="40"/>
+      <c r="J116" s="83"/>
+    </row>
+    <row r="117" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="86"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="90"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="44">
+        <v>6</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" s="83"/>
+    </row>
+    <row r="118" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="86"/>
+      <c r="B118" s="88"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="94"/>
+      <c r="F118" s="44">
+        <v>7</v>
+      </c>
+      <c r="G118" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I118" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J118" s="83"/>
+    </row>
+    <row r="119" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="86"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="90"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="94"/>
+      <c r="F119" s="44">
+        <v>8</v>
+      </c>
+      <c r="G119" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J119" s="83"/>
+    </row>
+    <row r="120" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="86"/>
+      <c r="B120" s="88"/>
+      <c r="C120" s="90"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="44">
+        <v>9</v>
+      </c>
+      <c r="G120" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J120" s="84"/>
+    </row>
+    <row r="121" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="85">
+        <v>21</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="D121" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F121" s="44">
+        <v>1</v>
+      </c>
+      <c r="G121" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J121" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="86"/>
+      <c r="B122" s="88"/>
+      <c r="C122" s="90"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="44">
+        <v>2</v>
+      </c>
+      <c r="G122" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J122" s="83"/>
+    </row>
+    <row r="123" spans="1:10" s="43" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="86"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="90"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="44">
+        <v>4</v>
+      </c>
+      <c r="G123" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40" t="s">
         <v>90</v>
       </c>
+      <c r="J123" s="84"/>
+    </row>
+    <row r="124" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="85">
+        <v>1</v>
+      </c>
+      <c r="B124" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D124" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E124" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="F124" s="44">
+        <v>1</v>
+      </c>
+      <c r="G124" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J124" s="82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="86"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="44">
+        <v>2</v>
+      </c>
+      <c r="G125" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J125" s="83"/>
+    </row>
+    <row r="126" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="86"/>
+      <c r="B126" s="88"/>
+      <c r="C126" s="90"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="94"/>
+      <c r="F126" s="44">
+        <v>3</v>
+      </c>
+      <c r="G126" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J126" s="83"/>
+    </row>
+    <row r="127" spans="1:10" s="43" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="86"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="90"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="94"/>
+      <c r="F127" s="44">
+        <v>4</v>
+      </c>
+      <c r="G127" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="H127" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="I127" s="40"/>
+      <c r="J127" s="83"/>
+    </row>
+    <row r="128" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="86"/>
+      <c r="B128" s="88"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="44">
+        <v>6</v>
+      </c>
+      <c r="G128" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J128" s="83"/>
+    </row>
+    <row r="129" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="86"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="90"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="94"/>
+      <c r="F129" s="44">
+        <v>7</v>
+      </c>
+      <c r="G129" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H129" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I129" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J129" s="83"/>
+    </row>
+    <row r="130" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="86"/>
+      <c r="B130" s="88"/>
+      <c r="C130" s="90"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="94"/>
+      <c r="F130" s="44">
+        <v>8</v>
+      </c>
+      <c r="G130" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J130" s="83"/>
+    </row>
+    <row r="131" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="86"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="94"/>
+      <c r="F131" s="44">
+        <v>9</v>
+      </c>
+      <c r="G131" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="J131" s="83"/>
+    </row>
+    <row r="132" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="86"/>
+      <c r="B132" s="88"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="94"/>
+      <c r="F132" s="44">
+        <v>9</v>
+      </c>
+      <c r="G132" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="J132" s="84"/>
+    </row>
+    <row r="133" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="85">
+        <v>1</v>
+      </c>
+      <c r="B133" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D133" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="44">
+        <v>1</v>
+      </c>
+      <c r="G133" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="H133" s="38"/>
+      <c r="I133" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J133" s="82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="39" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="86"/>
+      <c r="B134" s="88"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="92"/>
+      <c r="E134" s="94"/>
+      <c r="F134" s="44">
+        <v>2</v>
+      </c>
+      <c r="G134" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H134" s="40"/>
+      <c r="I134" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J134" s="83"/>
+    </row>
+    <row r="135" spans="1:10" s="43" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="86"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="94"/>
+      <c r="F135" s="44">
+        <v>3</v>
+      </c>
+      <c r="G135" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H135" s="40"/>
+      <c r="I135" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="J135" s="83"/>
+    </row>
+    <row r="136" spans="1:10" s="43" customFormat="1" ht="160.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="86"/>
+      <c r="B136" s="88"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="94"/>
+      <c r="F136" s="44">
+        <v>4</v>
+      </c>
+      <c r="G136" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="H136" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="I136" s="40"/>
+      <c r="J136" s="83"/>
+    </row>
+    <row r="137" spans="1:10" s="43" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="86"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="94"/>
+      <c r="F137" s="44">
+        <v>6</v>
+      </c>
+      <c r="G137" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="J137" s="83"/>
+    </row>
+    <row r="138" spans="1:10" s="43" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="86"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="94"/>
+      <c r="F138" s="44">
+        <v>7</v>
+      </c>
+      <c r="G138" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I138" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="J138" s="83"/>
+    </row>
+    <row r="139" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="86"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="44">
+        <v>8</v>
+      </c>
+      <c r="G139" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J139" s="83"/>
+    </row>
+    <row r="140" spans="1:10" s="43" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="86"/>
+      <c r="B140" s="88"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="94"/>
+      <c r="F140" s="44">
+        <v>9</v>
+      </c>
+      <c r="G140" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="J140" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="A112:A114"/>
-    <mergeCell ref="B112:B114"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="D112:D114"/>
-    <mergeCell ref="E112:E114"/>
+  <mergeCells count="122">
+    <mergeCell ref="A69:A76"/>
+    <mergeCell ref="B69:B76"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="J69:J76"/>
+    <mergeCell ref="A133:A140"/>
+    <mergeCell ref="B133:B140"/>
+    <mergeCell ref="C133:C140"/>
+    <mergeCell ref="D133:D140"/>
+    <mergeCell ref="E133:E140"/>
+    <mergeCell ref="J133:J140"/>
+    <mergeCell ref="A124:A132"/>
+    <mergeCell ref="B124:B132"/>
+    <mergeCell ref="C124:C132"/>
+    <mergeCell ref="D124:D132"/>
+    <mergeCell ref="E124:E132"/>
+    <mergeCell ref="J124:J132"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B5:B12"/>
@@ -5000,37 +5827,47 @@
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="D5:D12"/>
     <mergeCell ref="E5:E12"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="A97:A104"/>
+    <mergeCell ref="B97:B104"/>
+    <mergeCell ref="C97:C104"/>
+    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="E97:E104"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="C13:C20"/>
     <mergeCell ref="D13:D20"/>
     <mergeCell ref="E13:E20"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="C88:C95"/>
-    <mergeCell ref="D88:D95"/>
-    <mergeCell ref="E88:E95"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="D86:D90"/>
+    <mergeCell ref="E86:E90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="A86:A90"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="E21:E28"/>
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="C29:C36"/>
     <mergeCell ref="D29:D36"/>
@@ -5040,41 +5877,53 @@
     <mergeCell ref="C37:C44"/>
     <mergeCell ref="D37:D44"/>
     <mergeCell ref="E37:E44"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="E21:E28"/>
+    <mergeCell ref="E53:E60"/>
+    <mergeCell ref="A61:A68"/>
+    <mergeCell ref="B61:B68"/>
+    <mergeCell ref="C61:C68"/>
+    <mergeCell ref="D61:D68"/>
+    <mergeCell ref="E61:E68"/>
     <mergeCell ref="A45:A52"/>
     <mergeCell ref="B45:B52"/>
     <mergeCell ref="C45:C52"/>
     <mergeCell ref="D45:D52"/>
     <mergeCell ref="E45:E52"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="D61:D68"/>
-    <mergeCell ref="E61:E68"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="J21:J28"/>
+    <mergeCell ref="J29:J36"/>
+    <mergeCell ref="J37:J44"/>
+    <mergeCell ref="A113:A120"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="C113:C120"/>
+    <mergeCell ref="D113:D120"/>
+    <mergeCell ref="E113:E120"/>
+    <mergeCell ref="A105:A112"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="C105:C112"/>
+    <mergeCell ref="D105:D112"/>
+    <mergeCell ref="E105:E112"/>
+    <mergeCell ref="A91:A96"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="E91:E96"/>
     <mergeCell ref="A53:A60"/>
     <mergeCell ref="B53:B60"/>
     <mergeCell ref="C53:C60"/>
     <mergeCell ref="D53:D60"/>
-    <mergeCell ref="E53:E60"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="D82:D87"/>
-    <mergeCell ref="E82:E87"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="C96:C103"/>
-    <mergeCell ref="D96:D103"/>
-    <mergeCell ref="E96:E103"/>
-    <mergeCell ref="A104:A111"/>
-    <mergeCell ref="B104:B111"/>
-    <mergeCell ref="C104:C111"/>
-    <mergeCell ref="D104:D111"/>
-    <mergeCell ref="E104:E111"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J80:J82"/>
+    <mergeCell ref="J91:J96"/>
+    <mergeCell ref="J86:J90"/>
+    <mergeCell ref="J97:J104"/>
+    <mergeCell ref="J105:J112"/>
+    <mergeCell ref="J113:J120"/>
+    <mergeCell ref="J45:J52"/>
+    <mergeCell ref="J53:J60"/>
+    <mergeCell ref="J61:J68"/>
+    <mergeCell ref="J83:J85"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
